--- a/Roithner Laser S9850MG/Roithner_S9850MG_OpticalPower.xlsx
+++ b/Roithner Laser S9850MG/Roithner_S9850MG_OpticalPower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Laser Spectrum\Roithner Laser S9850MG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03736A9-370D-42E3-8969-00C8A571A49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE31B67F-1F80-4019-9CAC-B2A739213074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Information" sheetId="5" r:id="rId1"/>
     <sheet name="OpticalPower_vs_Current_20ºC" sheetId="6" r:id="rId2"/>
     <sheet name="OpticalPower_vs_Current_25º" sheetId="7" r:id="rId3"/>
-    <sheet name="OpticalPower_vs_Temp_15mA" sheetId="8" r:id="rId4"/>
+    <sheet name="OpticalPower_vs_Temp" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -2381,7 +2381,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>OpticalPower_vs_Temp_15mA!$O$11:$O$30</c:f>
+                <c:f>OpticalPower_vs_Temp!$O$11:$O$30</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
@@ -2417,7 +2417,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>OpticalPower_vs_Temp_15mA!$O$11:$O$30</c:f>
+                <c:f>OpticalPower_vs_Temp!$O$11:$O$30</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
@@ -2472,7 +2472,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>OpticalPower_vs_Temp_15mA!$U$11:$U$30</c:f>
+                <c:f>OpticalPower_vs_Temp!$U$11:$U$30</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
@@ -2508,7 +2508,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>OpticalPower_vs_Temp_15mA!$U$11:$U$30</c:f>
+                <c:f>OpticalPower_vs_Temp!$U$11:$U$30</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
@@ -2558,7 +2558,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>OpticalPower_vs_Temp_15mA!$N$11:$N$31</c:f>
+              <c:f>OpticalPower_vs_Temp!$N$11:$N$31</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2594,7 +2594,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>OpticalPower_vs_Temp_15mA!$T$11:$T$31</c:f>
+              <c:f>OpticalPower_vs_Temp!$T$11:$T$31</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="21"/>
@@ -8025,6 +8025,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E5:L5"/>
+    <mergeCell ref="N5:U5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="N3:U3"/>
+    <mergeCell ref="E4:L4"/>
+    <mergeCell ref="N4:U4"/>
     <mergeCell ref="N6:U6"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:H8"/>
@@ -8034,13 +8041,6 @@
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="R8:S8"/>
     <mergeCell ref="T8:U8"/>
-    <mergeCell ref="E5:L5"/>
-    <mergeCell ref="N5:U5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E3:L3"/>
-    <mergeCell ref="N3:U3"/>
-    <mergeCell ref="E4:L4"/>
-    <mergeCell ref="N4:U4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8055,7 +8055,7 @@
   <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9029,6 +9029,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E5:L5"/>
+    <mergeCell ref="N5:U5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="N3:U3"/>
+    <mergeCell ref="E4:L4"/>
+    <mergeCell ref="N4:U4"/>
     <mergeCell ref="N6:U6"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:H8"/>
@@ -9038,13 +9045,6 @@
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="R8:S8"/>
     <mergeCell ref="T8:U8"/>
-    <mergeCell ref="E5:L5"/>
-    <mergeCell ref="N5:U5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E3:L3"/>
-    <mergeCell ref="N3:U3"/>
-    <mergeCell ref="E4:L4"/>
-    <mergeCell ref="N4:U4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
